--- a/Parts List.xlsx
+++ b/Parts List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/kdrabd004_myuct_ac_za/Documents/Varsity Work/2025 (4th Year)/EEE4113F/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/kdrabd004_myuct_ac_za/Documents/Varsity Work/2025 (4th Year)/EEE4113F/EEE4113F-Group-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="101_S{67755801-AC3A-547C-9AA1-881D8B3CA615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A526BB30-425C-4641-9A1C-2F0C3265D670}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="101_S{67755801-AC3A-547C-9AA1-881D8B3CA615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37E149B6-8FAC-48E3-82E3-AB8DB6844993}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{0FD2535E-9E40-4B61-9F93-D9E091BB756B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0FD2535E-9E40-4B61-9F93-D9E091BB756B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,6 +452,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -459,12 +465,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,10 +483,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,21 +804,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A425CD9F-5F71-4DC4-AE29-D4E58D3C41E0}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" style="1" customWidth="1"/>
     <col min="3" max="5" width="20" style="1"/>
     <col min="6" max="6" width="88.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="74.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="20" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -842,8 +838,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -863,8 +859,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="26" t="s">
         <v>8</v>
       </c>
@@ -875,15 +871,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="10">
-        <f t="shared" ref="E3:E10" si="0">(C3*D3)</f>
+        <f t="shared" ref="E3:E9" si="0">(C3*D3)</f>
         <v>394.45</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
       <c r="B4" s="27" t="s">
         <v>10</v>
       </c>
@@ -901,8 +897,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36"/>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
@@ -920,7 +916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>14</v>
       </c>
@@ -941,8 +937,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -951,7 +947,7 @@
       <c r="C7" s="25">
         <v>99</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="34">
         <v>1</v>
       </c>
       <c r="E7" s="19">
@@ -962,46 +958,46 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="36"/>
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="25">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D8" s="14">
         <v>2</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="33">
         <f>(C8*D8)</f>
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="25">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D9" s="14">
         <v>2</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1019,21 +1015,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="18">
         <f>SUM(E2:E10)</f>
-        <v>1400.35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1380.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
         <v>24</v>
       </c>
@@ -1041,7 +1037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="70.2" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
         <v>26</v>
       </c>
@@ -1049,7 +1045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
         <v>15</v>
       </c>
@@ -1080,12 +1076,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5e3dcce6-8d7a-4a97-bc3c-0c26ec5308c1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1336,17 +1331,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5e3dcce6-8d7a-4a97-bc3c-0c26ec5308c1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21B835A0-3332-4856-8E57-25BDD5F8A2DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23AEE34-1C37-4A9B-87A2-9AA35BBB5357}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="5e3dcce6-8d7a-4a97-bc3c-0c26ec5308c1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e45d0e85-392f-4e41-9dfa-b4bf94b9865e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1371,18 +1376,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23AEE34-1C37-4A9B-87A2-9AA35BBB5357}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21B835A0-3332-4856-8E57-25BDD5F8A2DE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="5e3dcce6-8d7a-4a97-bc3c-0c26ec5308c1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e45d0e85-392f-4e41-9dfa-b4bf94b9865e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Parts List.xlsx
+++ b/Parts List.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/kdrabd004_myuct_ac_za/Documents/Varsity Work/2025 (4th Year)/EEE4113F/EEE4113F-Group-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="101_S{67755801-AC3A-547C-9AA1-881D8B3CA615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37E149B6-8FAC-48E3-82E3-AB8DB6844993}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="101_S{67755801-AC3A-547C-9AA1-881D8B3CA615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0265BC12-AF63-4CF2-A1AA-E812D0EF2A0F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0FD2535E-9E40-4B61-9F93-D9E091BB756B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0FD2535E-9E40-4B61-9F93-D9E091BB756B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Subsystem</t>
   </si>
@@ -128,10 +129,82 @@
     <t>12-5V Converter</t>
   </si>
   <si>
-    <t>https://www.communica.co.za/products/hkd-dc-dc-12v-to-3-3v-5v-12v?variant=31932627222601&amp;sfdr_ptcid=31591_617_668161103&amp;sfdr_hash=7f6e1733760adb18a9420fedf2df2ffc&amp;utm_source=www.communica.co.za&amp;gad_source=1&amp;gclid=CjwKCAjwwe2_BhBEEiwAM1I7se_9hmGaJmwss8mpkDaBXy-_Uvi3oSrvvpP88Pu5nGzhsX0u4wfTOxoCGIgQAvD_BwE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www.communica.co.za/products/hkd-adj-dc-dc-module-3a-display?variant=39359978963017&amp;sfdr_ptcid=31591_617_678237266&amp;sfdr_hash=8448afbc28384665f25f5547e75122c4&amp;utm_source=www.communica.co.za&amp;gad_source=1&amp;gad_campaignid=20668254388&amp;gclid=Cj0KCQjwucDBBhDxARIsANqFdr1rVf5uW0zrJIpjza3YDsXh0v0NLpxmlL4H5cpi8p5sccwqKND3ExQaAsIMEALw_wcB</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>PIR Sensor</t>
+  </si>
+  <si>
+    <t>Solenoid Valve</t>
+  </si>
+  <si>
+    <t>Epoxy</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4B</t>
+  </si>
+  <si>
+    <t>HKD 5MP IR Camera</t>
+  </si>
+  <si>
+    <t>MG995 Servo Motor</t>
+  </si>
+  <si>
+    <t>10W Power LED</t>
+  </si>
+  <si>
+    <t>3M Nuts</t>
+  </si>
+  <si>
+    <t>3M Bolts</t>
+  </si>
+  <si>
+    <t>4mm Self Tapping Screws</t>
+  </si>
+  <si>
+    <t>3D Printer Filament (g)</t>
+  </si>
+  <si>
+    <t>DC/DC Module</t>
+  </si>
+  <si>
+    <t>1.5 ohm Resistor</t>
+  </si>
+  <si>
+    <t>1k ohm Resistor</t>
+  </si>
+  <si>
+    <t>TIP41C Transistor</t>
+  </si>
+  <si>
+    <t>PCA9685 Servo Driver Module</t>
+  </si>
+  <si>
+    <t>Voltage Relay</t>
+  </si>
+  <si>
+    <t>1x40 2.54mm Pin Headers</t>
+  </si>
+  <si>
+    <t>303.13</t>
+  </si>
+  <si>
+    <t>15cm M/M Jumper Cables</t>
+  </si>
+  <si>
+    <t>15cm M/F Jumper Cables</t>
+  </si>
+  <si>
+    <t>15cm F/F Jumper Cables</t>
+  </si>
+  <si>
+    <t>50cm Camera Extension Cable</t>
   </si>
 </sst>
 </file>
@@ -354,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,6 +538,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -802,23 +890,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A425CD9F-5F71-4DC4-AE29-D4E58D3C41E0}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" style="1" customWidth="1"/>
     <col min="3" max="5" width="20" style="1"/>
-    <col min="6" max="6" width="88.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="74.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="88.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="74.28515625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="20" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -838,12 +926,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="24">
         <v>299.89999999999998</v>
@@ -859,7 +947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="26" t="s">
         <v>8</v>
@@ -878,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="27" t="s">
         <v>10</v>
@@ -897,7 +985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -916,7 +1004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>14</v>
       </c>
@@ -937,7 +1025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
@@ -958,7 +1046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36"/>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -970,14 +1058,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="33">
-        <f>(C8*D8)</f>
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -996,7 +1083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="4" t="s">
         <v>22</v>
@@ -1015,41 +1102,41 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="18">
         <f>SUM(E2:E10)</f>
-        <v>1380.35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+        <v>1336.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="70.2" x14ac:dyDescent="0.5">
-      <c r="A18" s="22" t="s">
+    <row r="29" spans="1:2" ht="74.25" x14ac:dyDescent="0.45">
+      <c r="A29" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1059,9 +1146,9 @@
     <mergeCell ref="A7:A10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{4327B1D0-847B-49DF-A055-904D1E2CEC47}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{B669FC89-D17A-42C8-9F91-2B0BF984730D}"/>
-    <hyperlink ref="B19" r:id="rId3" xr:uid="{938AEE41-75D4-4A40-81B7-ADCAC4728567}"/>
+    <hyperlink ref="B29" r:id="rId1" xr:uid="{4327B1D0-847B-49DF-A055-904D1E2CEC47}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{B669FC89-D17A-42C8-9F91-2B0BF984730D}"/>
+    <hyperlink ref="B30" r:id="rId3" xr:uid="{938AEE41-75D4-4A40-81B7-ADCAC4728567}"/>
     <hyperlink ref="F7" r:id="rId4" xr:uid="{B925A770-2628-4B04-81BF-BC5E747B6A9A}"/>
     <hyperlink ref="F5" r:id="rId5" xr:uid="{6170AF15-C236-4AB3-AA24-8AD70553B681}"/>
     <hyperlink ref="F2" r:id="rId6" xr:uid="{E18DD7F1-465A-4A3D-8130-F0892863CD3E}"/>
@@ -1069,8 +1156,317 @@
     <hyperlink ref="F4" r:id="rId8" xr:uid="{EA2E4A95-FD80-40D9-B22B-E278A65511F3}"/>
     <hyperlink ref="F9" r:id="rId9" xr:uid="{424EFB84-8E17-45CF-A184-33354BF71932}"/>
     <hyperlink ref="F10" r:id="rId10" display="https://www.communica.co.za/products/bdd-rect-power-led-white-10w-12v?variant=47484297576748&amp;sfdr_ptcid=31591_617_700786993&amp;sfdr_hash=d248f316f6e0ee6246b63d80c9db7ab4&amp;utm_source=www.communica.co.za&amp;gad_source=1&amp;gclid=CjwKCAjw--K_BhB5EiwAuwYoyjtPqrywpo_nIlHdVwvnvaaZ4rxipBRpoxM43IwdFD4rUvh_7pSQtxoC0cEQAvD_BwE" xr:uid="{0CBCC254-689B-4CE4-A5FA-4C9EF62BC3E6}"/>
-    <hyperlink ref="F8" r:id="rId11" display="https://www.communica.co.za/products/hkd-dc-dc-12v-to-3-3v-5v-12v?variant=31932627222601&amp;sfdr_ptcid=31591_617_668161103&amp;sfdr_hash=7f6e1733760adb18a9420fedf2df2ffc&amp;utm_source=www.communica.co.za&amp;gad_source=1&amp;gclid=CjwKCAjwwe2_BhBEEiwAM1I7se_9hmGaJmwss8mpkDaBXy-_Uvi3oSrvvpP88Pu5nGzhsX0u4wfTOxoCGIgQAvD_BwE" xr:uid="{D88E5D78-93E9-4A6B-8E8B-4D6552B04F75}"/>
+    <hyperlink ref="F8" r:id="rId11" display="https://www.communica.co.za/products/hkd-adj-dc-dc-module-3a-display?variant=39359978963017&amp;sfdr_ptcid=31591_617_678237266&amp;sfdr_hash=8448afbc28384665f25f5547e75122c4&amp;utm_source=www.communica.co.za&amp;gad_source=1&amp;gad_campaignid=20668254388&amp;gclid=Cj0KCQjwucDBBhDxARIsANqFdr1rVf5uW0zrJIpjza3YDsXh0v0NLpxmlL4H5cpi8p5sccwqKND3ExQaAsIMEALw_wcB" xr:uid="{E373B042-7F17-4C0C-86FF-700468C21285}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B42ABC-EFF8-406E-A858-DB2DA3265475}">
+  <dimension ref="B1:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="38">
+        <v>3</v>
+      </c>
+      <c r="D2" s="40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="38">
+        <v>1</v>
+      </c>
+      <c r="D3" s="40">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="38">
+        <v>1</v>
+      </c>
+      <c r="D4" s="40">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="38">
+        <v>1</v>
+      </c>
+      <c r="D5" s="40">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="38">
+        <v>1</v>
+      </c>
+      <c r="D6" s="40">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="38">
+        <v>1</v>
+      </c>
+      <c r="D7" s="42">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="38">
+        <v>1</v>
+      </c>
+      <c r="D8" s="40">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="38">
+        <v>1</v>
+      </c>
+      <c r="D9" s="40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="38">
+        <v>2</v>
+      </c>
+      <c r="D10" s="40">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="38">
+        <v>1</v>
+      </c>
+      <c r="D11" s="40">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="38">
+        <v>1</v>
+      </c>
+      <c r="D12" s="40">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="38">
+        <v>1</v>
+      </c>
+      <c r="D13" s="40">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="38">
+        <v>1</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="38">
+        <v>1</v>
+      </c>
+      <c r="D15" s="40">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="38">
+        <v>4</v>
+      </c>
+      <c r="D16" s="40">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="38">
+        <v>1</v>
+      </c>
+      <c r="D17" s="40">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="38">
+        <v>40</v>
+      </c>
+      <c r="D22" s="40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="38">
+        <v>40</v>
+      </c>
+      <c r="D23" s="40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="38">
+        <v>40</v>
+      </c>
+      <c r="D24" s="40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="38">
+        <v>25</v>
+      </c>
+      <c r="D25" s="40">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="38">
+        <v>25</v>
+      </c>
+      <c r="D26" s="40">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="38">
+        <v>25</v>
+      </c>
+      <c r="D27" s="40">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="40">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="38"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="38"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="38"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="38"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="38"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="38"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="38"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="38"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1084,6 +1480,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F622F5C9AEEC5140B3364BDB25F3FBCF" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3335941dc9d493746f0cc2bd05c0bc6e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e45d0e85-392f-4e41-9dfa-b4bf94b9865e" xmlns:ns4="5e3dcce6-8d7a-4a97-bc3c-0c26ec5308c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b7e701406dbc151b13b32fe5153e9372" ns3:_="" ns4:_="">
     <xsd:import namespace="e45d0e85-392f-4e41-9dfa-b4bf94b9865e"/>
@@ -1330,15 +1735,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23AEE34-1C37-4A9B-87A2-9AA35BBB5357}">
   <ds:schemaRefs>
@@ -1357,6 +1753,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21B835A0-3332-4856-8E57-25BDD5F8A2DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C37F1D23-1544-4EB7-A437-6CD73893FB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1373,12 +1777,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21B835A0-3332-4856-8E57-25BDD5F8A2DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>